--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/36/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/36/FD_Curve.xlsx
@@ -499,21 +499,21 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.39141</v>
+        <v>4.25891</v>
       </c>
       <c r="C6" t="n">
-        <v>4391.41</v>
+        <v>4258.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155036</v>
       </c>
       <c r="B7" t="n">
-        <v>5.299090000000001</v>
+        <v>4.85342</v>
       </c>
       <c r="C7" t="n">
-        <v>5299.09</v>
+        <v>4853.42</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.95574</v>
+        <v>5.31384</v>
       </c>
       <c r="C8" t="n">
-        <v>5955.74</v>
+        <v>5313.84</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.68831</v>
+        <v>5.57495</v>
       </c>
       <c r="C9" t="n">
-        <v>6688.31</v>
+        <v>5574.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247915</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>7.30165</v>
+        <v>5.65735</v>
       </c>
       <c r="C10" t="n">
-        <v>7301.65</v>
+        <v>5657.35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.27884</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>7.71837</v>
+        <v>5.65983</v>
       </c>
       <c r="C11" t="n">
-        <v>7718.37</v>
+        <v>5659.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309765</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>7.99162</v>
+        <v>5.658</v>
       </c>
       <c r="C12" t="n">
-        <v>7991.62</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.34069</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>8.108880000000001</v>
+        <v>5.65419</v>
       </c>
       <c r="C13" t="n">
-        <v>8108.88</v>
+        <v>5654.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371615</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>8.14354</v>
+        <v>5.649310000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>8143.54</v>
+        <v>5649.31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.40254</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>8.171200000000001</v>
+        <v>5.64323</v>
       </c>
       <c r="C15" t="n">
-        <v>8171.2</v>
+        <v>5643.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433465</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>8.189399999999999</v>
+        <v>5.63619</v>
       </c>
       <c r="C16" t="n">
-        <v>8189.4</v>
+        <v>5636.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464391</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>8.206020000000001</v>
+        <v>5.62837</v>
       </c>
       <c r="C17" t="n">
-        <v>8206.02</v>
+        <v>5628.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495316</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>8.218069999999999</v>
+        <v>5.61962</v>
       </c>
       <c r="C18" t="n">
-        <v>8218.07</v>
+        <v>5619.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526241</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>8.22791</v>
+        <v>5.61</v>
       </c>
       <c r="C19" t="n">
-        <v>8227.91</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571660000000001</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>8.23577</v>
+        <v>5.59969</v>
       </c>
       <c r="C20" t="n">
-        <v>8235.77</v>
+        <v>5599.69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588091</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>8.24187</v>
+        <v>5.58862</v>
       </c>
       <c r="C21" t="n">
-        <v>8241.870000000001</v>
+        <v>5588.62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619133</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>8.246420000000001</v>
+        <v>5.576770000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>8246.42</v>
+        <v>5576.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650305</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>8.24949</v>
+        <v>5.56403</v>
       </c>
       <c r="C23" t="n">
-        <v>8249.49</v>
+        <v>5564.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681478</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>8.251059999999999</v>
+        <v>5.550260000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>8251.059999999999</v>
+        <v>5550.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712655</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>8.25149</v>
+        <v>5.53575</v>
       </c>
       <c r="C25" t="n">
-        <v>8251.49</v>
+        <v>5535.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743827</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>8.2509</v>
+        <v>5.5202</v>
       </c>
       <c r="C26" t="n">
-        <v>8250.9</v>
+        <v>5520.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775004</v>
+        <v>0.775052</v>
       </c>
       <c r="B27" t="n">
-        <v>8.249229999999999</v>
+        <v>5.503850000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>8249.23</v>
+        <v>5503.85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806177</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>8.24658</v>
+        <v>5.48682</v>
       </c>
       <c r="C28" t="n">
-        <v>8246.58</v>
+        <v>5486.82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.83735</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>8.243030000000001</v>
+        <v>5.46896</v>
       </c>
       <c r="C29" t="n">
-        <v>8243.030000000001</v>
+        <v>5468.96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868527</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>8.238530000000001</v>
+        <v>5.45026</v>
       </c>
       <c r="C30" t="n">
-        <v>8238.530000000001</v>
+        <v>5450.26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899699</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>8.23319</v>
+        <v>5.43075</v>
       </c>
       <c r="C31" t="n">
-        <v>8233.190000000001</v>
+        <v>5430.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930872</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>8.227030000000001</v>
+        <v>5.410130000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>8227.030000000001</v>
+        <v>5410.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962049</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>8.21998</v>
+        <v>5.3884</v>
       </c>
       <c r="C33" t="n">
-        <v>8219.98</v>
+        <v>5388.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993221</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>8.21214</v>
+        <v>5.36578</v>
       </c>
       <c r="C34" t="n">
-        <v>8212.139999999999</v>
+        <v>5365.78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02453</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>8.20349</v>
+        <v>5.34224</v>
       </c>
       <c r="C35" t="n">
-        <v>8203.49</v>
+        <v>5342.24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05591</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>8.19383</v>
+        <v>5.31758</v>
       </c>
       <c r="C36" t="n">
-        <v>8193.83</v>
+        <v>5317.58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08729</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>8.18296</v>
+        <v>5.291729999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>8182.96</v>
+        <v>5291.73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11859</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>8.17122</v>
+        <v>5.264720000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>8171.22</v>
+        <v>5264.72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14956</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>8.1587</v>
+        <v>5.23658</v>
       </c>
       <c r="C39" t="n">
-        <v>8158.7</v>
+        <v>5236.58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18052</v>
+        <v>1.18141</v>
       </c>
       <c r="B40" t="n">
-        <v>8.1454</v>
+        <v>5.20733</v>
       </c>
       <c r="C40" t="n">
-        <v>8145.4</v>
+        <v>5207.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21149</v>
+        <v>1.21243</v>
       </c>
       <c r="B41" t="n">
-        <v>8.131270000000001</v>
+        <v>5.17692</v>
       </c>
       <c r="C41" t="n">
-        <v>8131.27</v>
+        <v>5176.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24246</v>
+        <v>1.24353</v>
       </c>
       <c r="B42" t="n">
-        <v>8.11626</v>
+        <v>5.14504</v>
       </c>
       <c r="C42" t="n">
-        <v>8116.26</v>
+        <v>5145.04</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27342</v>
+        <v>1.27443</v>
       </c>
       <c r="B43" t="n">
-        <v>8.100479999999999</v>
+        <v>5.11202</v>
       </c>
       <c r="C43" t="n">
-        <v>8100.48</v>
+        <v>5112.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30439</v>
+        <v>1.30549</v>
       </c>
       <c r="B44" t="n">
-        <v>8.08366</v>
+        <v>5.07745</v>
       </c>
       <c r="C44" t="n">
-        <v>8083.66</v>
+        <v>5077.45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33536</v>
+        <v>1.3365</v>
       </c>
       <c r="B45" t="n">
-        <v>8.06597</v>
+        <v>5.04137</v>
       </c>
       <c r="C45" t="n">
-        <v>8065.97</v>
+        <v>5041.37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36633</v>
+        <v>1.3674</v>
       </c>
       <c r="B46" t="n">
-        <v>8.047180000000001</v>
+        <v>5.00384</v>
       </c>
       <c r="C46" t="n">
-        <v>8047.18</v>
+        <v>5003.84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.3973</v>
+        <v>1.39856</v>
       </c>
       <c r="B47" t="n">
-        <v>8.027050000000001</v>
+        <v>4.96428</v>
       </c>
       <c r="C47" t="n">
-        <v>8027.05</v>
+        <v>4964.28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42826</v>
+        <v>1.4293</v>
       </c>
       <c r="B48" t="n">
-        <v>8.005560000000001</v>
+        <v>4.923319999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>8005.56</v>
+        <v>4923.32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45923</v>
+        <v>1.46053</v>
       </c>
       <c r="B49" t="n">
-        <v>7.9829</v>
+        <v>4.88007</v>
       </c>
       <c r="C49" t="n">
-        <v>7982.9</v>
+        <v>4880.07</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4902</v>
+        <v>1.49144</v>
       </c>
       <c r="B50" t="n">
-        <v>7.958930000000001</v>
+        <v>4.835319999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>7958.93</v>
+        <v>4835.32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52117</v>
+        <v>1.52248</v>
       </c>
       <c r="B51" t="n">
-        <v>7.93381</v>
+        <v>4.78837</v>
       </c>
       <c r="C51" t="n">
-        <v>7933.81</v>
+        <v>4788.37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55214</v>
+        <v>1.5535</v>
       </c>
       <c r="B52" t="n">
-        <v>7.90737</v>
+        <v>4.739770000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>7907.37</v>
+        <v>4739.77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5831</v>
+        <v>1.58445</v>
       </c>
       <c r="B53" t="n">
-        <v>7.87957</v>
+        <v>4.68949</v>
       </c>
       <c r="C53" t="n">
-        <v>7879.57</v>
+        <v>4689.49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61407</v>
+        <v>1.61552</v>
       </c>
       <c r="B54" t="n">
-        <v>7.85029</v>
+        <v>4.63716</v>
       </c>
       <c r="C54" t="n">
-        <v>7850.29</v>
+        <v>4637.16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64504</v>
+        <v>1.64638</v>
       </c>
       <c r="B55" t="n">
-        <v>7.819520000000001</v>
+        <v>4.583550000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>7819.52</v>
+        <v>4583.55</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67601</v>
+        <v>1.67757</v>
       </c>
       <c r="B56" t="n">
-        <v>7.78715</v>
+        <v>4.52779</v>
       </c>
       <c r="C56" t="n">
-        <v>7787.15</v>
+        <v>4527.79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70679</v>
+        <v>1.70841</v>
       </c>
       <c r="B57" t="n">
-        <v>7.75333</v>
+        <v>4.47106</v>
       </c>
       <c r="C57" t="n">
-        <v>7753.33</v>
+        <v>4471.06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73797</v>
+        <v>1.73953</v>
       </c>
       <c r="B58" t="n">
-        <v>7.71722</v>
+        <v>4.41223</v>
       </c>
       <c r="C58" t="n">
-        <v>7717.22</v>
+        <v>4412.23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76884</v>
+        <v>1.7704</v>
       </c>
       <c r="B59" t="n">
-        <v>7.679640000000001</v>
+        <v>4.352609999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>7679.64</v>
+        <v>4352.61</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79998</v>
+        <v>1.80147</v>
       </c>
       <c r="B60" t="n">
-        <v>7.63984</v>
+        <v>4.291300000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>7639.84</v>
+        <v>4291.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83084</v>
+        <v>1.83248</v>
       </c>
       <c r="B61" t="n">
-        <v>7.59834</v>
+        <v>4.22907</v>
       </c>
       <c r="C61" t="n">
-        <v>7598.34</v>
+        <v>4229.07</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86197</v>
+        <v>1.86335</v>
       </c>
       <c r="B62" t="n">
-        <v>7.554340000000001</v>
+        <v>4.166270000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>7554.34</v>
+        <v>4166.27</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89278</v>
+        <v>1.89458</v>
       </c>
       <c r="B63" t="n">
-        <v>7.50863</v>
+        <v>4.102</v>
       </c>
       <c r="C63" t="n">
-        <v>7508.63</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.924</v>
+        <v>1.92514</v>
       </c>
       <c r="B64" t="n">
-        <v>7.459960000000001</v>
+        <v>4.038650000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>7459.96</v>
+        <v>4038.65</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95479</v>
+        <v>1.95657</v>
       </c>
       <c r="B65" t="n">
-        <v>7.409560000000001</v>
+        <v>3.97323</v>
       </c>
       <c r="C65" t="n">
-        <v>7409.56</v>
+        <v>3973.23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98597</v>
+        <v>1.98747</v>
       </c>
       <c r="B66" t="n">
-        <v>7.356</v>
+        <v>3.90861</v>
       </c>
       <c r="C66" t="n">
-        <v>7356</v>
+        <v>3908.61</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01702</v>
+        <v>2.01826</v>
       </c>
       <c r="B67" t="n">
-        <v>7.30012</v>
+        <v>3.84421</v>
       </c>
       <c r="C67" t="n">
-        <v>7300.12</v>
+        <v>3844.21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04775</v>
+        <v>2.04989</v>
       </c>
       <c r="B68" t="n">
-        <v>7.24195</v>
+        <v>3.77894</v>
       </c>
       <c r="C68" t="n">
-        <v>7241.95</v>
+        <v>3778.94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0789</v>
+        <v>2.08042</v>
       </c>
       <c r="B69" t="n">
-        <v>7.18051</v>
+        <v>3.71552</v>
       </c>
       <c r="C69" t="n">
-        <v>7180.51</v>
+        <v>3715.52</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10977</v>
+        <v>2.1114</v>
       </c>
       <c r="B70" t="n">
-        <v>7.11721</v>
+        <v>3.65205</v>
       </c>
       <c r="C70" t="n">
-        <v>7117.21</v>
+        <v>3652.05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14094</v>
+        <v>2.14296</v>
       </c>
       <c r="B71" t="n">
-        <v>7.050140000000001</v>
+        <v>3.58845</v>
       </c>
       <c r="C71" t="n">
-        <v>7050.14</v>
+        <v>3588.45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17174</v>
+        <v>2.17336</v>
       </c>
       <c r="B72" t="n">
-        <v>6.981260000000001</v>
+        <v>3.52724</v>
       </c>
       <c r="C72" t="n">
-        <v>6981.26</v>
+        <v>3527.24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20299</v>
+        <v>2.20449</v>
       </c>
       <c r="B73" t="n">
-        <v>6.90933</v>
+        <v>3.46678</v>
       </c>
       <c r="C73" t="n">
-        <v>6909.33</v>
+        <v>3466.78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23386</v>
+        <v>2.23521</v>
       </c>
       <c r="B74" t="n">
-        <v>6.8354</v>
+        <v>3.40631</v>
       </c>
       <c r="C74" t="n">
-        <v>6835.4</v>
+        <v>3406.31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26481</v>
+        <v>2.26593</v>
       </c>
       <c r="B75" t="n">
-        <v>6.759180000000001</v>
+        <v>3.34797</v>
       </c>
       <c r="C75" t="n">
-        <v>6759.18</v>
+        <v>3347.97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29607</v>
+        <v>2.29665</v>
       </c>
       <c r="B76" t="n">
-        <v>6.68081</v>
+        <v>3.29181</v>
       </c>
       <c r="C76" t="n">
-        <v>6680.81</v>
+        <v>3291.81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32679</v>
+        <v>2.32802</v>
       </c>
       <c r="B77" t="n">
-        <v>6.60059</v>
+        <v>3.23432</v>
       </c>
       <c r="C77" t="n">
-        <v>6600.59</v>
+        <v>3234.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35791</v>
+        <v>2.3591</v>
       </c>
       <c r="B78" t="n">
-        <v>6.51797</v>
+        <v>3.17919</v>
       </c>
       <c r="C78" t="n">
-        <v>6517.97</v>
+        <v>3179.19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3889</v>
+        <v>2.39034</v>
       </c>
       <c r="B79" t="n">
-        <v>6.43438</v>
+        <v>3.12664</v>
       </c>
       <c r="C79" t="n">
-        <v>6434.38</v>
+        <v>3126.64</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41996</v>
+        <v>2.42139</v>
       </c>
       <c r="B80" t="n">
-        <v>6.347930000000001</v>
+        <v>3.07589</v>
       </c>
       <c r="C80" t="n">
-        <v>6347.93</v>
+        <v>3075.89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45055</v>
+        <v>2.45308</v>
       </c>
       <c r="B81" t="n">
-        <v>6.26179</v>
+        <v>3.02506</v>
       </c>
       <c r="C81" t="n">
-        <v>6261.79</v>
+        <v>3025.06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48042</v>
+        <v>2.48508</v>
       </c>
       <c r="B82" t="n">
-        <v>6.176850000000001</v>
+        <v>2.97612</v>
       </c>
       <c r="C82" t="n">
-        <v>6176.85</v>
+        <v>2976.12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51201</v>
+        <v>2.51708</v>
       </c>
       <c r="B83" t="n">
-        <v>6.0862</v>
+        <v>2.92913</v>
       </c>
       <c r="C83" t="n">
-        <v>6086.2</v>
+        <v>2929.13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54401</v>
+        <v>2.54908</v>
       </c>
       <c r="B84" t="n">
-        <v>5.99431</v>
+        <v>2.88386</v>
       </c>
       <c r="C84" t="n">
-        <v>5994.31</v>
+        <v>2883.86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57523</v>
+        <v>2.58108</v>
       </c>
       <c r="B85" t="n">
-        <v>5.90439</v>
+        <v>2.84125</v>
       </c>
       <c r="C85" t="n">
-        <v>5904.39</v>
+        <v>2841.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60563</v>
+        <v>2.61308</v>
       </c>
       <c r="B86" t="n">
-        <v>5.81649</v>
+        <v>2.80158</v>
       </c>
       <c r="C86" t="n">
-        <v>5816.49</v>
+        <v>2801.58</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63573</v>
+        <v>2.64316</v>
       </c>
       <c r="B87" t="n">
-        <v>5.73044</v>
+        <v>2.76547</v>
       </c>
       <c r="C87" t="n">
-        <v>5730.44</v>
+        <v>2765.47</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66596</v>
+        <v>2.67089</v>
       </c>
       <c r="B88" t="n">
-        <v>5.64226</v>
+        <v>2.7341</v>
       </c>
       <c r="C88" t="n">
-        <v>5642.26</v>
+        <v>2734.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69887</v>
+        <v>2.69863</v>
       </c>
       <c r="B89" t="n">
-        <v>5.5486</v>
+        <v>2.70316</v>
       </c>
       <c r="C89" t="n">
-        <v>5548.6</v>
+        <v>2703.16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73034</v>
+        <v>2.73065</v>
       </c>
       <c r="B90" t="n">
-        <v>5.4573</v>
+        <v>2.67057</v>
       </c>
       <c r="C90" t="n">
-        <v>5457.3</v>
+        <v>2670.57</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76143</v>
+        <v>2.76393</v>
       </c>
       <c r="B91" t="n">
-        <v>5.36847</v>
+        <v>2.63793</v>
       </c>
       <c r="C91" t="n">
-        <v>5368.47</v>
+        <v>2637.93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79226</v>
+        <v>2.7935</v>
       </c>
       <c r="B92" t="n">
-        <v>5.28215</v>
+        <v>2.61515</v>
       </c>
       <c r="C92" t="n">
-        <v>5282.15</v>
+        <v>2615.15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82152</v>
+        <v>2.82747</v>
       </c>
       <c r="B93" t="n">
-        <v>5.19803</v>
+        <v>2.59486</v>
       </c>
       <c r="C93" t="n">
-        <v>5198.03</v>
+        <v>2594.86</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85078</v>
+        <v>2.86222</v>
       </c>
       <c r="B94" t="n">
-        <v>5.11586</v>
+        <v>2.57886</v>
       </c>
       <c r="C94" t="n">
-        <v>5115.86</v>
+        <v>2578.86</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88378</v>
+        <v>2.89422</v>
       </c>
       <c r="B95" t="n">
-        <v>5.02516</v>
+        <v>2.57072</v>
       </c>
       <c r="C95" t="n">
-        <v>5025.16</v>
+        <v>2570.72</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91578</v>
+        <v>2.92622</v>
       </c>
       <c r="B96" t="n">
-        <v>4.93501</v>
+        <v>2.55883</v>
       </c>
       <c r="C96" t="n">
-        <v>4935.01</v>
+        <v>2558.83</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94778</v>
+        <v>2.95822</v>
       </c>
       <c r="B97" t="n">
-        <v>4.84735</v>
+        <v>2.54622</v>
       </c>
       <c r="C97" t="n">
-        <v>4847.35</v>
+        <v>2546.22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97976</v>
+        <v>2.99022</v>
       </c>
       <c r="B98" t="n">
-        <v>4.76222</v>
+        <v>2.53822</v>
       </c>
       <c r="C98" t="n">
-        <v>4762.22</v>
+        <v>2538.22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00962</v>
+        <v>3.02222</v>
       </c>
       <c r="B99" t="n">
-        <v>4.67946</v>
+        <v>2.52513</v>
       </c>
       <c r="C99" t="n">
-        <v>4679.46</v>
+        <v>2525.13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03949</v>
+        <v>3.05422</v>
       </c>
       <c r="B100" t="n">
-        <v>4.59882</v>
+        <v>2.51052</v>
       </c>
       <c r="C100" t="n">
-        <v>4598.82</v>
+        <v>2510.52</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06936</v>
+        <v>3.08622</v>
       </c>
       <c r="B101" t="n">
-        <v>4.52064</v>
+        <v>2.50093</v>
       </c>
       <c r="C101" t="n">
-        <v>4520.64</v>
+        <v>2500.93</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09857</v>
+        <v>3.11677</v>
       </c>
       <c r="B102" t="n">
-        <v>4.44401</v>
+        <v>2.48689</v>
       </c>
       <c r="C102" t="n">
-        <v>4444.01</v>
+        <v>2486.89</v>
       </c>
     </row>
   </sheetData>
